--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297390.0153829887</v>
+        <v>-303252.3354181682</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11964941.19964262</v>
+        <v>11963761.24086178</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>263.1075949419724</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>271.2437699919388</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>54.92091011697593</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>179.75733924242</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.66230845704269</v>
+        <v>60.72455305259771</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>265.9226867394724</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>179.6777464496849</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968106</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>45.96976637589634</v>
       </c>
     </row>
     <row r="7">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>47.83355271768346</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>157.227688909249</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>257.4784014214117</v>
       </c>
       <c r="F8" t="n">
-        <v>17.22457276277828</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>165.2599640362305</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372782</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>42.78909148798825</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>172.3495380358479</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993867</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.9984695717784</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465751</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442478</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>1.884220723234455</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338896</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456089</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901681</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.98205199664118</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>53.92875199688888</v>
+        <v>152.4042818273828</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,13 +1664,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993867</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.9984695717784</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>6.853786864275364</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681691</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901681</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>129.9578536674682</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574973</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973564985</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167818</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196058</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380031</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667942</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644669</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883882</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541087</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.9835613365828</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.882059701038713</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656603</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.552853376774</v>
+        <v>857.3114874350556</v>
       </c>
       <c r="C2" t="n">
-        <v>873.552853376774</v>
+        <v>857.3114874350556</v>
       </c>
       <c r="D2" t="n">
-        <v>873.552853376774</v>
+        <v>857.3114874350556</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>454.7279625516001</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475497</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>773.3325661833825</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>773.3325661833825</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O2" t="n">
-        <v>2042.925620653167</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737748</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172347</v>
+        <v>1595.909005810936</v>
       </c>
       <c r="V2" t="n">
-        <v>1919.030240172347</v>
+        <v>1253.802196514454</v>
       </c>
       <c r="W2" t="n">
-        <v>1548.031205140634</v>
+        <v>1253.802196514454</v>
       </c>
       <c r="X2" t="n">
-        <v>1548.031205140634</v>
+        <v>1253.802196514454</v>
       </c>
       <c r="Y2" t="n">
-        <v>1274.047599088171</v>
+        <v>857.3114874350556</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>710.7802625178497</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653866</v>
+        <v>987.96005364798</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>1501.562732257668</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1501.562732257668</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1683.855139028938</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1461.315137400005</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1231.197891533292</v>
       </c>
       <c r="X3" t="n">
-        <v>994.6579769757473</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>862.576596958811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1273.335947196196</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="C4" t="n">
-        <v>1273.335947196196</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.335947196196</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="E4" t="n">
-        <v>1273.335947196196</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196196</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196196</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196196</v>
+        <v>1337.188010812188</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196196</v>
+        <v>1204.093585449266</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196196</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306138</v>
+        <v>1255.55035638531</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179937</v>
+        <v>1419.67799625911</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518202</v>
+        <v>1605.969574597374</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549411</v>
+        <v>1789.159208628583</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591119</v>
+        <v>1951.863975670291</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367697</v>
+        <v>2071.74014144687</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R4" t="n">
-        <v>2169.063466245786</v>
+        <v>2013.824405440559</v>
       </c>
       <c r="S4" t="n">
-        <v>1966.247382428335</v>
+        <v>2013.824405440559</v>
       </c>
       <c r="T4" t="n">
-        <v>1730.528330596569</v>
+        <v>1778.105353608793</v>
       </c>
       <c r="U4" t="n">
-        <v>1730.528330596569</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="V4" t="n">
-        <v>1730.528330596569</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="W4" t="n">
-        <v>1730.528330596569</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="X4" t="n">
-        <v>1496.448008379552</v>
+        <v>1492.666561850694</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.335947196196</v>
+        <v>1492.666561850694</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>334.0808197802815</v>
+        <v>1727.156109576471</v>
       </c>
       <c r="C5" t="n">
-        <v>334.0808197802815</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="D5" t="n">
-        <v>334.0808197802815</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596591</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634774</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>514.9239283250748</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123376</v>
+        <v>1028.526606934763</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760838</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653167</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523737</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958336</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.023168958336</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="W5" t="n">
-        <v>1120.024133926624</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="X5" t="n">
-        <v>730.5715288596804</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="Y5" t="n">
-        <v>334.0808197802815</v>
+        <v>1727.156109576471</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653866</v>
+        <v>642.3356118811474</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653866</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>840.8692298963693</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>487.4021579447936</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>487.4021579447936</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>487.4021579447936</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>487.4021579447936</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>770.732560013616</v>
       </c>
       <c r="U7" t="n">
-        <v>659.5038901782084</v>
+        <v>770.732560013616</v>
       </c>
       <c r="V7" t="n">
-        <v>659.5038901782084</v>
+        <v>770.732560013616</v>
       </c>
       <c r="W7" t="n">
-        <v>500.6880427951286</v>
+        <v>487.4021579447936</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>487.4021579447936</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>487.4021579447936</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000.1956504937</v>
+        <v>791.7887166987605</v>
       </c>
       <c r="C8" t="n">
-        <v>1000.1956504937</v>
+        <v>791.7887166987605</v>
       </c>
       <c r="D8" t="n">
-        <v>614.7545217103677</v>
+        <v>791.7887166987605</v>
       </c>
       <c r="E8" t="n">
-        <v>212.1709968269122</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4835,19 @@
         <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W8" t="n">
-        <v>1790.14300127204</v>
+        <v>1192.283462410157</v>
       </c>
       <c r="X8" t="n">
-        <v>1400.690396205097</v>
+        <v>1192.283462410157</v>
       </c>
       <c r="Y8" t="n">
-        <v>1400.690396205097</v>
+        <v>1192.283462410157</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>305.4650404492652</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>789.0311263475785</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226187</v>
+        <v>1374.529131354181</v>
       </c>
       <c r="N9" t="n">
-        <v>1814.990048232789</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O9" t="n">
-        <v>2331.51033082377</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4990,7 +4990,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>781.830736040843</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
         <v>781.830736040843</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.395101119022</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.015874768146</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131008</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937467</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3062.735080672454</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2911.030753378065</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2911.030753378065</v>
       </c>
       <c r="V11" t="n">
-        <v>2859.534777998631</v>
+        <v>2640.720219227777</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.44433553818</v>
+        <v>2341.517459342259</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.78800561743</v>
+        <v>2341.517459342259</v>
       </c>
       <c r="Y11" t="n">
-        <v>2043.093571684225</v>
+        <v>2016.823025409054</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>426.3522468384172</v>
+        <v>560.5406844434933</v>
       </c>
       <c r="C13" t="n">
-        <v>327.9434040506006</v>
+        <v>462.1318416556765</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1065660993092</v>
+        <v>378.2950037043852</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1065660993092</v>
+        <v>294.5324667097816</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>209.0028070689484</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1230.985410981374</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628194</v>
+        <v>1036.802340948392</v>
       </c>
       <c r="W13" t="n">
-        <v>661.345437340191</v>
+        <v>825.2682140257634</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693679</v>
+        <v>825.2682140257634</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.3522468384172</v>
+        <v>673.9524279886007</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1452.672125045209</v>
+        <v>1799.246369073021</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129427</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404046</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911386</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="X14" t="n">
-        <v>2106.065029543617</v>
+        <v>2452.639273571429</v>
       </c>
       <c r="Y14" t="n">
-        <v>1781.370595610412</v>
+        <v>2127.944839638224</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L15" t="n">
         <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420614</v>
+        <v>347.745604232206</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542445</v>
+        <v>249.3367614443891</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029531</v>
+        <v>165.4999234930978</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>158.576906458476</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>158.576906458476</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208436</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J16" t="n">
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922021</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310116</v>
+        <v>1067.062634295802</v>
       </c>
       <c r="V16" t="n">
-        <v>1099.965602310116</v>
+        <v>872.8795642628201</v>
       </c>
       <c r="W16" t="n">
-        <v>968.6950430500472</v>
+        <v>661.3454373401917</v>
       </c>
       <c r="X16" t="n">
-        <v>806.4109959792241</v>
+        <v>499.0613902693687</v>
       </c>
       <c r="Y16" t="n">
-        <v>655.0952099420614</v>
+        <v>347.745604232206</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,13 +5543,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229814</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960398</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343038</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655131</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296498</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5762,7 +5762,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,7 +5771,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
         <v>3105.956385205777</v>
@@ -5783,19 +5783,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840154</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,43 +5917,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072212</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -5987,19 +5987,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6069,22 +6069,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6148,22 +6148,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958361</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2509.067570753566</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375468</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236563</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,16 +6297,16 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="L27" t="n">
         <v>556.9309448458635</v>
@@ -6315,13 +6315,13 @@
         <v>1184.702594472545</v>
       </c>
       <c r="N27" t="n">
-        <v>1840.480565683104</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>2357.000848274085</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2357.000848274085</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
         <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236564</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1765.220722740009</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758834</v>
+        <v>2293.032006377471</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765611</v>
+        <v>2733.0716072698</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897132</v>
+        <v>3081.259099401322</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.73045008374183</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076161</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898325</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515735</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169078</v>
+        <v>687.4874315041416</v>
       </c>
       <c r="N34" t="n">
-        <v>1000.810719775187</v>
+        <v>870.6770655353507</v>
       </c>
       <c r="O34" t="n">
-        <v>1268.788579543966</v>
+        <v>1033.381832577059</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1264.91011892862</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6965,22 +6965,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,13 +7093,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
         <v>629.0093992567336</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,19 +7336,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924224</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7567,25 +7567,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960407</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343048</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>683.142663665514</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072221</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,25 +7670,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446702</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L46" t="n">
-        <v>442.71782091847</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>529.8612640735041</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>283.4906887405025</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8064,16 +8064,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>96.09182324999654</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>429.7444900762462</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,22 +8219,22 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>631.450878385781</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405025</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>93.76504805760285</v>
+        <v>259.735333566873</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>223.8267004481029</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>350.356602351234</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>121.5663691156888</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684342</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,16 +9717,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271592</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0381992661173</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N39" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.98101562563969</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>123.8611942508156</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>93.60898024358247</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.82057618014994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>264.2366820904779</v>
+        <v>165.7611522599839</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362794</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>76.07112476038219</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442478</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338896</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456089</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>79.46093198593398</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1049632.81826199</v>
+        <v>1049031.270648229</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1049632.81826199</v>
+        <v>1049031.270648229</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934155.0195033965</v>
+        <v>934155.0195033962</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934155.0195033965</v>
+        <v>934155.0195033964</v>
       </c>
     </row>
     <row r="7">
@@ -26317,13 +26317,13 @@
         <v>234431.8315213638</v>
       </c>
       <c r="D2" t="n">
-        <v>234431.8315213639</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="E2" t="n">
-        <v>207166.7304517207</v>
+        <v>207166.7304517206</v>
       </c>
       <c r="F2" t="n">
-        <v>207166.7304517205</v>
+        <v>207166.7304517206</v>
       </c>
       <c r="G2" t="n">
         <v>234431.8315213638</v>
@@ -26332,16 +26332,16 @@
         <v>234431.8315213638</v>
       </c>
       <c r="I2" t="n">
-        <v>234431.8315213639</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="J2" t="n">
-        <v>234431.8315213643</v>
+        <v>234431.831521364</v>
       </c>
       <c r="K2" t="n">
-        <v>234431.8315213639</v>
+        <v>234431.8315213641</v>
       </c>
       <c r="L2" t="n">
-        <v>234431.8315213635</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="M2" t="n">
         <v>234431.8315213638</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668191</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728559</v>
+        <v>62456.24177539681</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277128</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166297</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805105</v>
+        <v>99893.08150805108</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805104</v>
+        <v>99893.08150805108</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
@@ -26445,7 +26445,7 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,13 +26479,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-203402.9242646725</v>
+        <v>-199653.026064138</v>
       </c>
       <c r="C6" t="n">
-        <v>-21197.97597281667</v>
+        <v>-25794.36903008299</v>
       </c>
       <c r="D6" t="n">
-        <v>-27213.77763058993</v>
+        <v>-34950.06685398164</v>
       </c>
       <c r="E6" t="n">
-        <v>-58034.93223021542</v>
+        <v>-58244.66377690513</v>
       </c>
       <c r="F6" t="n">
-        <v>54087.62924382895</v>
+        <v>53877.89769713947</v>
       </c>
       <c r="G6" t="n">
-        <v>-18815.26133047108</v>
+        <v>-18815.26133047096</v>
       </c>
       <c r="H6" t="n">
-        <v>28610.06420621085</v>
+        <v>28610.06420621092</v>
       </c>
       <c r="I6" t="n">
-        <v>28610.06420621107</v>
+        <v>28610.06420621098</v>
       </c>
       <c r="J6" t="n">
-        <v>-184431.8533910741</v>
+        <v>-177915.5682365011</v>
       </c>
       <c r="K6" t="n">
-        <v>22370.29580342804</v>
+        <v>22370.29580342827</v>
       </c>
       <c r="L6" t="n">
-        <v>-32812.29313119361</v>
+        <v>-36861.13034166543</v>
       </c>
       <c r="M6" t="n">
-        <v>-13590.76525341201</v>
+        <v>-14642.46026460023</v>
       </c>
       <c r="N6" t="n">
         <v>28610.0642062109</v>
@@ -26561,7 +26561,7 @@
         <v>842.3701634397075</v>
       </c>
       <c r="P6" t="n">
-        <v>28610.06420621093</v>
+        <v>28610.06420621095</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,10 +26799,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014442</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293133</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660699</v>
+        <v>78.07030221924602</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287429</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>149.6178991433496</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>121.282031996666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>153.0416017711687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>7.656667631068444</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.9996710167061</v>
+        <v>61.93742642115109</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>132.6350028951485</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.84805553892</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626999</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>131.5513083793515</v>
       </c>
     </row>
     <row r="7">
@@ -27783,16 +27783,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>185.5283085957647</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>123.2694091388852</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>141.0792882132092</v>
       </c>
       <c r="F8" t="n">
-        <v>395.5009213225437</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28062,10 +28062,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>68.10189727721766</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>117.3244398042875</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="17">
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28743,13 +28743,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668696</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,13 +28758,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28989,22 +28989,22 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634528012</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,16 +29229,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>86.65052755599436</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29539,25 +29539,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599538</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683159772</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833177</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>106.86834202247</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>94.97643844045206</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,16 +30165,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528481</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30639,13 +30639,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,22 +30876,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668865</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>5.636002634528452</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>376.6130943430124</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>133.1892414995773</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.704701200684619</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>342.6611252569315</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>478.2027086552893</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995773</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>3.704701200684619</v>
+        <v>169.6749867099548</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>74.26286302400655</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>260.7596670179007</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>34.48300429637414</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257292</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488448</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260881</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257292</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>51.00106726098206</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634527888</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565488</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,13 +36054,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36285,22 +36285,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716069</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907923</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>638.1665882070859</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729925</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625831</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>595.0111574826892</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341181</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837692</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055102</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>295.041653475262</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>216.0634745784102</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N39" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,10 +37716,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724866</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565488</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529575</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023943</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
